--- a/Projects/uids-web/webapp/uploadFile/complat/groupList.xlsx
+++ b/Projects/uids-web/webapp/uploadFile/complat/groupList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>组织机构类型</t>
   </si>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上级机构编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,7 +116,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
+    <t>001001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>985656744</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +552,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -549,7 +561,7 @@
     <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="18.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
@@ -590,7 +602,7 @@
         <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>4</v>
@@ -598,7 +610,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -631,7 +643,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
@@ -642,7 +654,9 @@
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
@@ -652,8 +666,12 @@
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="L3" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">

--- a/Projects/uids-web/webapp/uploadFile/complat/groupList.xlsx
+++ b/Projects/uids-web/webapp/uploadFile/complat/groupList.xlsx
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -674,9 +674,6 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Projects/uids-web/webapp/uploadFile/complat/groupList.xlsx
+++ b/Projects/uids-web/webapp/uploadFile/complat/groupList.xlsx
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sycj.szf.gs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>甘肃省烟草专卖局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,35 +76,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>城关区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>620102000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级机构名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级机构编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>省政府</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>城关区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cg.lz.sxq.gs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>620102000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级机构名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级机构编码</t>
+    <t>985656744</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbcs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbcs2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -117,22 +133,6 @@
   </si>
   <si>
     <t>001001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板测试2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省政府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>985656744</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +552,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -599,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>4</v>
@@ -610,67 +610,67 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="3">
         <v>438002844</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3"/>
     </row>

--- a/Projects/uids-web/webapp/uploadFile/complat/groupList.xlsx
+++ b/Projects/uids-web/webapp/uploadFile/complat/groupList.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>组织机构类型</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>区域类型</t>
   </si>
@@ -549,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -562,117 +559,112 @@
     <col min="3" max="3" width="18.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="17" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="3">
         <v>438002844</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
